--- a/project/excel/cmdr.xlsx
+++ b/project/excel/cmdr.xlsx
@@ -4,11 +4,43 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="33" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sample" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sample1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Condition" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Database" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Diagnosis" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Document" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Event" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Information" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="MaterialEntity" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Measurment" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Observation" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Process" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="ResearchProject" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="ResearchSubject" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Sampling" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Site" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Specimen" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Study" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Subject" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Condition1" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Database1" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Diagnosis1" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Document1" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Event1" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Information1" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="MaterialEntity1" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Measurment1" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Observation1" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Process1" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="ResearchProject1" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="ResearchSubject1" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Sampling1" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Site1" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Specimen1" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Study1" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="Subject2" sheetId="34" state="visible" r:id="rId34"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +458,246 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Process_has_input</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Process_has_output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Sampling_has_input</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Sampling_has_output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Specimen_has_source</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Specimen_has_parent_specimen</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Subject_taxon</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Subject_birth_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Database_subjects</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -439,6 +711,504 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Database_subjects</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Diagnosis_is_about</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Diagnosis_source</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Document_is_about</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Process_has_input</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Process_has_output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Diagnosis_is_about</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Diagnosis_source</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Sampling_has_input</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Sampling_has_output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Specimen_has_source</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Specimen_has_parent_specimen</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Subject_taxon</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Subject_birth_date</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Document_is_about</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/project/excel/cmdr.xlsx
+++ b/project/excel/cmdr.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="15" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="19" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Container" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,16 +13,20 @@
     <sheet name="MaterialProcessing" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Participation" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="Process" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="SpecimenCollectionProcess" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Subject" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Container1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Investigation1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="MaterialEntity1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="MaterialProcessing1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Participation1" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Process1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="SpecimenCollectionProcess1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Subject1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Quantity" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="QuantityValue" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="SpecimenCollectionProcess" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Subject" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Container1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Investigation1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="MaterialEntity1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="MaterialProcessing1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Participation1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Process1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Quantity1" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="QuantityValue1" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="SpecimenCollectionProcess1" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Subject1" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -474,6 +478,83 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Subject_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Container_materials</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Container_participations</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Container_processes</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Container_investigations</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Container_subjects</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -504,7 +585,94 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>MaterialEntity_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>MaterialEntity_used_in</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>MaterialEntity_source</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>MaterialEntity_volume</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>MaterialEntity_concentration</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Process_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>MaterialProcessing_has_input</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>MaterialProcessing_has_output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -521,6 +689,235 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Participation_includes</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Participation_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Participation_involved_in</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Process_id</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Quantity_has_raw_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Quantity_has_numeric_value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Quantity_has_unit</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Quantity_comparator</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Process_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>SpecimenCollectionProcess_has_input</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SpecimenCollectionProcess_has_output</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Investigation_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Investigation_part_of</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Subject_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>MaterialEntity_id</t>
         </is>
       </c>
@@ -539,13 +936,23 @@
           <t>MaterialEntity_source</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>MaterialEntity_volume</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>MaterialEntity_concentration</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -581,7 +988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -622,7 +1029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -648,7 +1055,66 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Quantity_has_raw_value</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Quantity_has_numeric_value</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Quantity_has_unit</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Quantity_comparator</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -682,328 +1148,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Subject_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Investigation_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Investigation_part_of</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>MaterialEntity_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>MaterialEntity_used_in</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>MaterialEntity_source</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Process_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>MaterialProcessing_has_input</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>MaterialProcessing_has_output</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Participation_includes</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Participation_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Participation_involved_in</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Process_id</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Process_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>SpecimenCollectionProcess_has_input</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>SpecimenCollectionProcess_has_output</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Subject_id</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Container_materials</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Container_participations</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Container_processes</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Container_investigations</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Container_subjects</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>